--- a/biology/Botanique/Parc_Pae/Parc_Pae.xlsx
+++ b/biology/Botanique/Parc_Pae/Parc_Pae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc calcaire (estonien : Paepark ou Pae park) est un parc du quartier Sikupilli de Lasnamäe à Tallinn en Estonie[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc calcaire (estonien : Paepark ou Pae park) est un parc du quartier Sikupilli de Lasnamäe à Tallinn en Estonie,. 
 </t>
         </is>
       </c>
@@ -511,18 +523,20 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc calcaire est organisé autour d’une ancienne carrière de calcaire, aujourd’hui inondée, dont l'exploitation a été arrêtée au milieu des années 1960.
-Le lac Pae ainsi créé a une profondeur de 8 m et il est longé par un chemin asphalté de 1,9 km qui permet aux promeneurs de profiter de la nature ou de se livrer à l’exercice physique[3].
-La superficie totale du parc Pae, est de 22 hectares[2].
+Le lac Pae ainsi créé a une profondeur de 8 m et il est longé par un chemin asphalté de 1,9 km qui permet aux promeneurs de profiter de la nature ou de se livrer à l’exercice physique.
+La superficie totale du parc Pae, est de 22 hectares.
 La première tranche d’aménagements s’est achevée en 2009. 
-Le parc se divise en trois parties, le parc familial équipé d’aires de jeux et de terrains de sports, le parc du rossignol sillonné d’allées pour les promeneurs et les sportifs et le parc de la colline, une zone verdoyante avec un café et un théâtre de plein air[1]. 
-De nombreux chemins, escaliers et belvédères agrémentent l’ensemble, planté de 150 arbres et 300 arbustes[2].
+Le parc se divise en trois parties, le parc familial équipé d’aires de jeux et de terrains de sports, le parc du rossignol sillonné d’allées pour les promeneurs et les sportifs et le parc de la colline, une zone verdoyante avec un café et un théâtre de plein air. 
+De nombreux chemins, escaliers et belvédères agrémentent l’ensemble, planté de 150 arbres et 300 arbustes.
 Le parc abrite, entre autres, des sorbiers, des érables communs, des peupliers, des saules, des frênes. 
 L'espèce d'arbre la plus exotique est l'abricotier.
-De nouvelles plantations ont été faites pour compléter les espèces existantes, des conifères (mélèze d'Europe et pin de montagne), des variétés ornementales et des arbustes à fleurs ont été plantés[2].
-Le plan d'eau au milieu du parc est un lieu de nidification et de repos pour la faune sauvage, les cygnes, les sternes, les goélands et les canards colverts[2].
+De nouvelles plantations ont été faites pour compléter les espèces existantes, des conifères (mélèze d'Europe et pin de montagne), des variétés ornementales et des arbustes à fleurs ont été plantés.
+Le plan d'eau au milieu du parc est un lieu de nidification et de repos pour la faune sauvage, les cygnes, les sternes, les goélands et les canards colverts.
 </t>
         </is>
       </c>
